--- a/Resources/Column_desc.xlsx
+++ b/Resources/Column_desc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwag2\Jeremy Data Analysis\Airline Cust Satisfaction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwag2\Jeremy Data Analysis\Airline Cust Satisfaction\Airline_Customer_Satisfaction\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DEAF7EB-25CA-4ED6-B32A-D93D0F9642E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4323BD77-195E-460E-BB2D-C41FC6774634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{104330D5-811D-4BCE-BF4B-1A1570250D36}"/>
   </bookViews>
@@ -36,14 +36,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Main_Demographics</t>
+  </si>
+  <si>
+    <t>Column Names</t>
+  </si>
+  <si>
+    <t>New_Column_Names</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Customer_Type</t>
+  </si>
+  <si>
+    <t>Passenger_ID</t>
+  </si>
+  <si>
+    <t>Travel_Type</t>
+  </si>
+  <si>
+    <t>Travel_Class</t>
+  </si>
+  <si>
+    <t>Flight_Distance</t>
+  </si>
+  <si>
+    <t>Inflight_WiFi</t>
+  </si>
+  <si>
+    <t>Dep_Arr_Time_Convenient</t>
+  </si>
+  <si>
+    <t>Online_Booking</t>
+  </si>
+  <si>
+    <t>Gate_Location</t>
+  </si>
+  <si>
+    <t>Online_Boarding</t>
+  </si>
+  <si>
+    <t>Seat_Comfort</t>
+  </si>
+  <si>
+    <t>Inflight_Entertainment</t>
+  </si>
+  <si>
+    <t>Baggage_Handling</t>
+  </si>
+  <si>
+    <t>Inflight_Service</t>
+  </si>
+  <si>
+    <t>Food_Drink</t>
+  </si>
+  <si>
+    <t>On_Board_Service</t>
+  </si>
+  <si>
+    <t>Leg_Room</t>
+  </si>
+  <si>
+    <t>CheckIn_Service</t>
+  </si>
+  <si>
+    <t>Depature_Delay_Minutes</t>
+  </si>
+  <si>
+    <t>Arrival_Delay_Minutes</t>
+  </si>
+  <si>
+    <t>Overall_Satisfaction</t>
+  </si>
+  <si>
+    <t>Flight_Detail</t>
+  </si>
+  <si>
+    <t>Inflight_Detail</t>
+  </si>
+  <si>
+    <t>Inflight_Wifi</t>
+  </si>
+  <si>
+    <t>Prior_Post_Flight</t>
+  </si>
+  <si>
+    <t>Data Tables</t>
+  </si>
   <si>
     <r>
       <t>Gender:</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -57,7 +156,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -71,7 +170,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -85,7 +184,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -99,7 +198,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -113,7 +212,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -127,7 +226,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -141,7 +240,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -155,7 +254,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -169,7 +268,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -183,7 +282,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -197,7 +296,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -211,7 +310,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -225,7 +324,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -239,7 +338,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -253,7 +352,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -267,7 +366,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -281,7 +380,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -295,7 +394,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -309,7 +408,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -323,7 +422,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -337,7 +436,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -351,7 +450,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="14"/>
         <color rgb="FF3C4043"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -364,7 +463,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,27 +472,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <sz val="8"/>
+      <sz val="14"/>
       <color rgb="FF3C4043"/>
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="14"/>
       <color rgb="FF3C4043"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -401,13 +529,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -724,133 +873,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC149059-C41C-4676-A49B-06A0572F4924}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="63.6640625" customWidth="1"/>
+    <col min="1" max="1" width="104.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" customWidth="1"/>
+    <col min="4" max="4" width="3.21875" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="24.6" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="71.400000000000006">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="23.4">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="40.799999999999997">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="91.8">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="81.599999999999994">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="51">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="91.8">
-      <c r="A7" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18">
+      <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18">
+      <c r="A14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="81.599999999999994">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="71.400000000000006">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="51">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="51">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="61.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="51">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="71.400000000000006">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="61.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="51">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="61.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="61.2">
-      <c r="A18" s="1" t="s">
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="61.2">
-      <c r="A19" s="1" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="18">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="40.799999999999997">
-      <c r="A20" s="1" t="s">
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="71.400000000000006">
-      <c r="A21" s="1" t="s">
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18">
+      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="61.2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="81.599999999999994">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+    <row r="22" spans="1:2" ht="18">
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18">
+      <c r="A24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18">
+      <c r="A25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.25"/>
+  <pageSetup scale="96" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="3" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>